--- a/data/georgia_census/imereti/khoni/population_total.xlsx
+++ b/data/georgia_census/imereti/khoni/population_total.xlsx
@@ -1366,13 +1366,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF727592-2008-41E0-981F-BB06208B5B22}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B9C7AA6-B38A-468C-A790-83617C3B4FDD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D05A634-5372-4AE3-9A6C-AE8B388BED2B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2976C9E4-9684-494B-B80D-7400BF3D0D03}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC7501D1-6E24-410B-A330-34545B632850}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AFA96E8-EA9C-4DD7-8EA0-16823F655224}"/>
 </file>